--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_7_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_7_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.68000000000058</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.851186284961841e-13</v>
+        <v>4.740652315149418e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>6.851186284961841e-13</v>
+        <v>4.740652315149418e-13</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>54.89897022864201</v>
+        <v>56.73207308611578</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[43.06599075014074, 66.73194970714327]</t>
+          <t>[44.913499294097335, 68.55064687813423]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>4.162892253134487e-12</v>
+        <v>1.480593425640109e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>4.162892253134487e-12</v>
+        <v>1.480593425640109e-12</v>
       </c>
       <c r="P2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.616395018964118</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3773949772495788, 1.8805529598065034]</t>
+          <t>[1.3773949772495797, 1.8553950606786564]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>51.91091102979851</v>
+        <v>50.8009259535134</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.23886951146169, 59.582952548135324]</t>
+          <t>[42.97859883663241, 58.62325307039439]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>19.02222222222265</v>
+        <v>18.99193193193235</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.99399399399439</v>
+        <v>18.01929929929969</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.0504504504509</v>
+        <v>19.964564564565</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.68000000000058</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.696243394164412e-14</v>
+        <v>2.834399381868025e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.696243394164412e-14</v>
+        <v>2.834399381868025e-13</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>55.65257747110296</v>
+        <v>58.22600740904101</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[43.28973518194107, 68.01541976026485]</t>
+          <t>[44.576535937076684, 71.87547888100534]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.020361573011996e-11</v>
+        <v>4.821631982565577e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.020361573011996e-11</v>
+        <v>4.821631982565577e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.276763380738195</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0503422885875784, 1.5031844728888109]</t>
+          <t>[0.9245527929483472, 1.4277107755052718]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>3.309352791802667e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>3.309352791802667e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>52.44003784077896</v>
+        <v>55.18732805422803</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.38719235168944, 59.49288332986847]</t>
+          <t>[47.45842946911834, 62.91622663933771]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>20.4617417417422</v>
+        <v>20.78362362362408</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.53633633633677</v>
+        <v>19.75979979980023</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.38714714714763</v>
+        <v>21.80744744744792</v>
       </c>
     </row>
     <row r="4">
@@ -753,53 +753,53 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.68000000000058</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>6.364908600176022e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>6.364908600176022e-13</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>59.29077601936707</v>
+        <v>59.69277641234851</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[46.25398367929945, 72.32756835943468]</t>
+          <t>[44.022061125566125, 75.36349169913089]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7.540856827858988e-12</v>
+        <v>1.038726882285346e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>7.540856827858988e-12</v>
+        <v>1.038726882285346e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8490790955648082</v>
+        <v>0.748447499053424</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.6226580034141938, 1.0755001877154227]</t>
+          <t>[0.4842895582110396, 1.0126054398958084]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.554351980459501e-09</v>
+        <v>8.494301764194745e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>1.554351980459501e-09</v>
+        <v>8.494301764194745e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>53.00241283228124</v>
+        <v>54.37291424167596</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.31298109676562, 59.69184456779687]</t>
+          <t>[46.471896371023774, 62.273932112328154]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>22.20972972973023</v>
+        <v>22.52412412412462</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.28432432432481</v>
+        <v>21.44910910910958</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.13513513513565</v>
+        <v>23.59913913913965</v>
       </c>
     </row>
     <row r="5">
@@ -839,53 +839,53 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.68000000000058</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.787459069646502e-14</v>
+        <v>2.564615186884112e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>1.787459069646502e-14</v>
+        <v>2.564615186884112e-14</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>61.34785184472604</v>
+        <v>59.89025986033145</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[48.535873880725845, 74.15982980872623]</t>
+          <t>[46.953364186493275, 72.82715553416962]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.597832977040525e-12</v>
+        <v>4.443334589154802e-12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.597832977040525e-12</v>
+        <v>4.443334589154802e-12</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3081842643161155</v>
+        <v>0.3836579616996545</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.09434212172942225, 0.5220264069028087]</t>
+          <t>[0.15723686954903915, 0.6100790538502698]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.005711686155259299</v>
+        <v>0.001369965683592156</v>
       </c>
       <c r="S5" t="n">
-        <v>0.005711686155259299</v>
+        <v>0.001369965683592156</v>
       </c>
       <c r="T5" t="n">
-        <v>56.88845478483839</v>
+        <v>54.01044940187423</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.7364587252932, 64.04045084438357]</t>
+          <t>[46.92643660509089, 61.09446219865756]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.42042042042097</v>
+        <v>24.00866866866919</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.54642642642695</v>
+        <v>23.08722722722773</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.29441441441498</v>
+        <v>24.93011011011065</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.68000000000058</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.180864295236006e-10</v>
+        <v>6.559086607182962e-12</v>
       </c>
       <c r="I6" t="n">
-        <v>1.180864295236006e-10</v>
+        <v>6.559086607182962e-12</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>58.65099335672885</v>
+        <v>59.59209256395634</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[44.64874985860067, 72.65323685485704]</t>
+          <t>[46.429229848659546, 72.75495527925314]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>8.054024114301228e-11</v>
+        <v>8.628209258176867e-12</v>
       </c>
       <c r="O6" t="n">
-        <v>8.054024114301228e-11</v>
+        <v>8.628209258176867e-12</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01886842434588498</v>
+        <v>-0.02515789912784605</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.24528951649650033, 0.2830263651882703]</t>
+          <t>[-0.2641579408423853, 0.2138421425866932]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8862497878474398</v>
+        <v>0.8330559143396632</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8862497878474398</v>
+        <v>0.8330559143396632</v>
       </c>
       <c r="T6" t="n">
-        <v>51.62683943638537</v>
+        <v>55.4091153424128</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.537239944424485, 60.716438928346264]</t>
+          <t>[46.997854939194795, 63.8203757456308]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.661338147750939e-15</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6.661338147750939e-15</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>25.60288288288346</v>
+        <v>0.1023823823823875</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.52324324324379</v>
+        <v>-0.870250250250268</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.68252252252312</v>
+        <v>1.075015015015043</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.68000000000058</v>
+        <v>25.57000000000056</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.57945886872335e-11</v>
+        <v>4.951816734433123e-12</v>
       </c>
       <c r="I7" t="n">
-        <v>2.57945886872335e-11</v>
+        <v>4.951816734433123e-12</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>56.83635773003844</v>
+        <v>55.27475014780693</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[40.53195035940453, 73.14076510067235]</t>
+          <t>[40.628120290875415, 69.92138000473844]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>9.48282141699508e-09</v>
+        <v>1.320848985741918e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>9.48282141699508e-09</v>
+        <v>1.320848985741918e-09</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.4402632347373086</v>
+        <v>-0.3522105877898465</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.7421580242714629, -0.13836844520315417]</t>
+          <t>[-0.6289474781961548, -0.07547369738353815]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.005204647313992172</v>
+        <v>0.01377767788085027</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005204647313992172</v>
+        <v>0.01377767788085027</v>
       </c>
       <c r="T7" t="n">
-        <v>50.44743929034387</v>
+        <v>57.15570471464797</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[41.85273244937295, 59.04214613131478]</t>
+          <t>[49.29158406362688, 65.01982536566905]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.799399399399437</v>
+        <v>1.433353353353386</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5655255255255354</v>
+        <v>0.3071471471471543</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.033273273273339</v>
+        <v>2.559559559559617</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.38000000000053</v>
+        <v>25.48000000000054</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>8.959766262250923e-11</v>
+        <v>2.02171612784241e-13</v>
       </c>
       <c r="I8" t="n">
-        <v>8.959766262250923e-11</v>
+        <v>2.02171612784241e-13</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>53.71538356704846</v>
+        <v>58.82362411701318</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[38.073135823779694, 69.35763131031722]</t>
+          <t>[43.83085041096976, 73.8163978230566]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.355692003102149e-08</v>
+        <v>4.7846904216442e-10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.355692003102149e-08</v>
+        <v>4.7846904216442e-10</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.081789662497386</v>
+        <v>-0.9811580659860013</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.3962634015954638, -0.767315923399309]</t>
+          <t>[-1.2327370572644627, -0.7295790747075399]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.300795005043653e-08</v>
+        <v>5.608367104059653e-10</v>
       </c>
       <c r="S8" t="n">
-        <v>1.300795005043653e-08</v>
+        <v>5.608367104059653e-10</v>
       </c>
       <c r="T8" t="n">
-        <v>54.55106183149515</v>
+        <v>52.64452922070537</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.810375768171994, 63.291747894818315]</t>
+          <t>[44.80419152411643, 60.48486691729431]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>4.369729729729819</v>
+        <v>3.978858858858942</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.099459459459522</v>
+        <v>2.958638638638702</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.640000000000116</v>
+        <v>4.999079079079182</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.38000000000053</v>
+        <v>25.48000000000054</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>9.510714438221157e-11</v>
+        <v>9.248157795127554e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>9.510714438221157e-11</v>
+        <v>9.248157795127554e-14</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>53.96192468488303</v>
+        <v>56.67983021903125</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[38.12243096708001, 69.80141840268605]</t>
+          <t>[44.01317297234738, 69.34648746571511]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.634862090149625e-08</v>
+        <v>1.216404754700307e-11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.634862090149625e-08</v>
+        <v>1.216404754700307e-11</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.207579158136618</v>
+        <v>-1.283052855520156</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.5220528972346958, -0.8931054190385392]</t>
+          <t>[-1.534631846798618, -1.0314738642416934]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.42501624020997e-10</v>
+        <v>2.229327833447314e-13</v>
       </c>
       <c r="S9" t="n">
-        <v>8.42501624020997e-10</v>
+        <v>2.229327833447314e-13</v>
       </c>
       <c r="T9" t="n">
-        <v>54.18206968086809</v>
+        <v>52.74898427560244</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.364122283421956, 63.00001707831422]</t>
+          <t>[45.31866707223075, 60.179301478974125]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>4.877837837837941</v>
+        <v>5.203123123123234</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.60756756756764</v>
+        <v>4.18290290290299</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.148108108108241</v>
+        <v>6.223343343343478</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.38000000000053</v>
+        <v>25.48000000000054</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.061195824078823e-13</v>
+        <v>2.65631960871815e-12</v>
       </c>
       <c r="I10" t="n">
-        <v>4.061195824078823e-13</v>
+        <v>2.65631960871815e-12</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>52.58072567982042</v>
+        <v>54.06985840827898</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[41.607540579585795, 63.55391078005504]</t>
+          <t>[42.456267023272815, 65.68344979328513]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>3.747668841924678e-12</v>
       </c>
       <c r="O10" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>3.747668841924678e-12</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.622684493746079</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.8616845354606184, -1.38368445203154]</t>
+          <t>[-1.8239476867688493, -1.2956318050840787]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="T10" t="n">
-        <v>48.20396570551698</v>
+        <v>59.59637290098173</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.03687432000426, 55.3710570910297]</t>
+          <t>[51.75204750363848, 67.44069829832497]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>6.554594594594732</v>
+        <v>6.325365365365503</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.589189189189305</v>
+        <v>5.254134134134247</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.520000000000159</v>
+        <v>7.396596596596758</v>
       </c>
     </row>
     <row r="11">
@@ -1355,53 +1355,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.38000000000053</v>
+        <v>25.48000000000054</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>8.150147223773274e-11</v>
+        <v>1.012745443063068e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>8.150147223773274e-11</v>
+        <v>1.012745443063068e-12</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>52.66082876846827</v>
+        <v>56.28273788870311</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[37.65542617338038, 67.66623136355616]</t>
+          <t>[42.64185058307257, 69.92362519433365]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>8.068036905228837e-09</v>
+        <v>1.224029766433432e-10</v>
       </c>
       <c r="O11" t="n">
-        <v>8.068036905228837e-09</v>
+        <v>1.224029766433432e-10</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.98747403109985</v>
+        <v>-1.899421384152387</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.3019477701979265, -1.6730002920017726]</t>
+          <t>[-2.176158274558696, -1.6226844937460791]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>54.7461942606961</v>
+        <v>53.32896268759693</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[46.354242570714064, 63.13814595067814]</t>
+          <t>[45.526862356807655, 61.1310630183862]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.028108108108277</v>
+        <v>7.702662662662828</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.757837837837982</v>
+        <v>6.580420420420561</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.298378378378573</v>
+        <v>8.824904904905095</v>
       </c>
     </row>
     <row r="12">
@@ -1441,39 +1441,39 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.38000000000053</v>
+        <v>25.48000000000054</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.936895088761048e-11</v>
       </c>
       <c r="I12" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.936895088761048e-11</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>64.30697131318855</v>
+        <v>59.62722081300951</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[51.351714081479926, 77.26222854489718]</t>
+          <t>[42.116011759959704, 77.13842986605931]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>5.240252676230739e-13</v>
+        <v>1.6541970015993e-08</v>
       </c>
       <c r="O12" t="n">
-        <v>5.240252676230739e-13</v>
+        <v>1.6541970015993e-08</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.31452671976185</v>
+        <v>-2.377421467581465</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.515789912784619, -2.1132635267390802]</t>
+          <t>[-2.6667373075516965, -2.0881056276112337]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,27 +1483,27 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>50.16074371944624</v>
+        <v>51.91963294684471</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.61320636921604, 56.70828106967645]</t>
+          <t>[43.08997945475725, 60.74928643893218]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="X12" t="n">
-        <v>9.349189189189385</v>
+        <v>9.641081081081287</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.536216216216395</v>
+        <v>8.467827827828009</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.16216216216237</v>
+        <v>10.81433433433457</v>
       </c>
     </row>
     <row r="13">
@@ -1527,39 +1527,39 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.38000000000053</v>
+        <v>25.48000000000054</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.468336728928989e-13</v>
+        <v>4.907185768843192e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>3.468336728928989e-13</v>
+        <v>4.907185768843192e-14</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>63.34326530932565</v>
+        <v>61.13888268616628</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[48.32876238422044, 78.35776823443086]</t>
+          <t>[47.40987034144669, 74.86789503088586]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>6.589684353741632e-11</v>
+        <v>1.4000578474338e-11</v>
       </c>
       <c r="O13" t="n">
-        <v>6.589684353741632e-11</v>
+        <v>1.4000578474338e-11</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.729632055371312</v>
+        <v>-2.779947853627005</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-2.981211046649774, -2.4780530640928493]</t>
+          <t>[-3.006368945777621, -2.5535267614763884]</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1569,11 +1569,11 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>52.55786859642437</v>
+        <v>51.16816375026361</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[44.42046714814348, 60.69527004470526]</t>
+          <t>[43.7820491318091, 58.554278368718116]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>11.02594594594617</v>
+        <v>11.27343343343368</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.00972972972993</v>
+        <v>10.35523523523545</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.04216216216241</v>
+        <v>12.1916316316319</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.38000000000053</v>
+        <v>25.48000000000054</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.09193765140958e-11</v>
+        <v>1.339233168806686e-10</v>
       </c>
       <c r="I14" t="n">
-        <v>1.09193765140958e-11</v>
+        <v>1.339233168806686e-10</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>57.23828313316249</v>
+        <v>59.35201016771131</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[43.66486719227581, 70.81169907404917]</t>
+          <t>[45.087593016463515, 73.6164273189591]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.672018493247833e-11</v>
+        <v>9.698597480678472e-11</v>
       </c>
       <c r="O14" t="n">
-        <v>6.672018493247833e-11</v>
+        <v>9.698597480678472e-11</v>
       </c>
       <c r="P14" t="n">
-        <v>-3.044105794469389</v>
+        <v>-3.119579491852928</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-3.2956847857478513, -2.7925268031909267]</t>
+          <t>[-3.3963163822592364, -2.8428426014466197]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,27 +1655,27 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.3350662126331</v>
+        <v>53.69464956094838</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[42.129540263367204, 58.540592161899]</t>
+          <t>[44.43375637551122, 62.95554274638555]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="W14" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="X14" t="n">
-        <v>12.29621621621647</v>
+        <v>12.650730730731</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.28000000000023</v>
+        <v>11.52848848848874</v>
       </c>
       <c r="Z14" t="n">
-        <v>13.31243243243271</v>
+        <v>13.77297297297327</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_7_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_7_square_10_.xlsx
@@ -581,53 +581,53 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.57000000000056</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.740652315149418e-13</v>
+        <v>8.767986336977174e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>4.740652315149418e-13</v>
+        <v>8.767986336977174e-12</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>56.73207308611578</v>
+        <v>52.76563634005966</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[44.913499294097335, 68.55064687813423]</t>
+          <t>[40.424139978835356, 65.10713270128397]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.480593425640109e-12</v>
+        <v>4.522338059587128e-11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.480593425640109e-12</v>
+        <v>4.522338059587128e-11</v>
       </c>
       <c r="P2" t="n">
-        <v>1.616395018964118</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3773949772495797, 1.8553950606786564]</t>
+          <t>[1.3648160276856558, 1.8931319093704264]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T2" t="n">
-        <v>50.8009259535134</v>
+        <v>52.18146912255771</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.97859883663241, 58.62325307039439]</t>
+          <t>[44.17628956636673, 60.18664867874869]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.99193193193235</v>
+        <v>19.02962962963005</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.01929929929969</v>
+        <v>17.94956956956997</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.964564564565</v>
+        <v>20.10968968969014</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.57000000000056</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.834399381868025e-13</v>
+        <v>8.971667853074905e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>2.834399381868025e-13</v>
+        <v>8.971667853074905e-11</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>58.22600740904101</v>
+        <v>51.92490344626834</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[44.576535937076684, 71.87547888100534]</t>
+          <t>[37.5702307122411, 66.27957618029558]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.821631982565577e-11</v>
+        <v>3.85014464754363e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>4.821631982565577e-11</v>
+        <v>3.85014464754363e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>1.17613178422681</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9245527929483472, 1.4277107755052718]</t>
+          <t>[1.0000264903318863, 1.6541318676558872]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.309352791802667e-12</v>
+        <v>1.935600568714335e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>3.309352791802667e-12</v>
+        <v>1.935600568714335e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>55.18732805422803</v>
+        <v>49.01833692739309</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.45842946911834, 62.91622663933771]</t>
+          <t>[40.617265313748845, 57.41940854103733]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>20.78362362362408</v>
+        <v>20.26398398398444</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.75979979980023</v>
+        <v>18.92676676676719</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.80744744744792</v>
+        <v>21.60120120120169</v>
       </c>
     </row>
     <row r="4">
@@ -753,53 +753,53 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.57000000000056</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>6.364908600176022e-13</v>
+        <v>7.770450949351471e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>6.364908600176022e-13</v>
+        <v>7.770450949351471e-13</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>59.69277641234851</v>
+        <v>56.57948807140263</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[44.022061125566125, 75.36349169913089]</t>
+          <t>[41.85631903433, 71.30265710847526]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.038726882285346e-09</v>
+        <v>8.261391570840715e-10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.038726882285346e-09</v>
+        <v>8.261391570840715e-10</v>
       </c>
       <c r="P4" t="n">
-        <v>0.748447499053424</v>
+        <v>0.798763297309117</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.4842895582110396, 1.0126054398958084]</t>
+          <t>[0.5471843060306538, 1.0503422885875802]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>8.084084290871374e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>8.084084290871374e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>54.37291424167596</v>
+        <v>60.13677228937483</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.471896371023774, 62.273932112328154]</t>
+          <t>[52.597252476678804, 67.67629210207085]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>22.52412412412462</v>
+        <v>22.42410410410461</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.44910910910958</v>
+        <v>21.39547547547595</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.59913913913965</v>
+        <v>23.45273273273326</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.57000000000056</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.564615186884112e-14</v>
+        <v>1.718358788593832e-11</v>
       </c>
       <c r="I5" t="n">
-        <v>2.564615186884112e-14</v>
+        <v>1.718358788593832e-11</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>59.89025986033145</v>
+        <v>55.16388902127975</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[46.953364186493275, 72.82715553416962]</t>
+          <t>[40.69618825319222, 69.63158978936728]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.443334589154802e-12</v>
+        <v>1.01287134235406e-09</v>
       </c>
       <c r="O5" t="n">
-        <v>4.443334589154802e-12</v>
+        <v>1.01287134235406e-09</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3836579616996545</v>
+        <v>0.3710790121357324</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.15723686954903915, 0.6100790538502698]</t>
+          <t>[0.09434212172942491, 0.6478159025420398]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001369965683592156</v>
+        <v>0.009716957682786909</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001369965683592156</v>
+        <v>0.009716957682786909</v>
       </c>
       <c r="T5" t="n">
-        <v>54.01044940187423</v>
+        <v>49.96624117484419</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.92643660509089, 61.09446219865756]</t>
+          <t>[41.98709050994398, 57.9453918397444]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>24.00866866866919</v>
+        <v>24.17277277277331</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.08722722722773</v>
+        <v>23.0412812812818</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.93011011011065</v>
+        <v>25.30426426426482</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.57000000000056</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>6.559086607182962e-12</v>
+        <v>9.675593659608239e-13</v>
       </c>
       <c r="I6" t="n">
-        <v>6.559086607182962e-12</v>
+        <v>9.675593659608239e-13</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>59.59209256395634</v>
+        <v>56.43379184653559</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[46.429229848659546, 72.75495527925314]</t>
+          <t>[44.56979439620193, 68.29778929686925]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>8.628209258176867e-12</v>
+        <v>1.956212969389526e-12</v>
       </c>
       <c r="O6" t="n">
-        <v>8.628209258176867e-12</v>
+        <v>1.956212969389526e-12</v>
       </c>
       <c r="P6" t="n">
         <v>-0.02515789912784605</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.2641579408423853, 0.2138421425866932]</t>
+          <t>[-0.2515789912784623, 0.20126319302277018]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8330559143396632</v>
+        <v>0.8239341904840236</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8330559143396632</v>
+        <v>0.8239341904840236</v>
       </c>
       <c r="T6" t="n">
-        <v>55.4091153424128</v>
+        <v>51.66873762770906</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.997854939194795, 63.8203757456308]</t>
+          <t>[44.19219914206825, 59.14527611334988]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1023823823823875</v>
+        <v>0.1028628628628638</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.870250250250268</v>
+        <v>-0.8229029029029248</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.075015015015043</v>
+        <v>1.028628628628653</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.57000000000056</v>
+        <v>25.69000000000058</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.951816734433123e-12</v>
+        <v>1.106781333248819e-12</v>
       </c>
       <c r="I7" t="n">
-        <v>4.951816734433123e-12</v>
+        <v>1.106781333248819e-12</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>55.27475014780693</v>
+        <v>51.11163371634765</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[40.628120290875415, 69.92138000473844]</t>
+          <t>[38.30527286526107, 63.91799456743423]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.320848985741918e-09</v>
+        <v>3.029902995166367e-10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.320848985741918e-09</v>
+        <v>3.029902995166367e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.3522105877898465</v>
+        <v>-0.4025263860455386</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.6289474781961548, -0.07547369738353815]</t>
+          <t>[-0.6666843268879239, -0.13836844520315328]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.01377767788085027</v>
+        <v>0.00363110212791895</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01377767788085027</v>
+        <v>0.00363110212791895</v>
       </c>
       <c r="T7" t="n">
-        <v>57.15570471464797</v>
+        <v>48.98062233871055</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.29158406362688, 65.01982536566905]</t>
+          <t>[42.01755442203596, 55.943690255385135]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.433353353353386</v>
+        <v>1.645805805805843</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3071471471471543</v>
+        <v>0.5657457457457573</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.559559559559617</v>
+        <v>2.725865865865928</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.48000000000054</v>
+        <v>25.41000000000053</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.02171612784241e-13</v>
+        <v>1.387445713874058e-12</v>
       </c>
       <c r="I8" t="n">
-        <v>2.02171612784241e-13</v>
+        <v>1.387445713874058e-12</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>58.82362411701318</v>
+        <v>60.33885754193012</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[43.83085041096976, 73.8163978230566]</t>
+          <t>[43.66460257568791, 77.01311250817233]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.7846904216442e-10</v>
+        <v>3.81335674148886e-09</v>
       </c>
       <c r="O8" t="n">
-        <v>4.7846904216442e-10</v>
+        <v>3.81335674148886e-09</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.9811580659860013</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.2327370572644627, -0.7295790747075399]</t>
+          <t>[-1.2578949563923087, -0.7295790747075399]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5.608367104059653e-10</v>
+        <v>1.433209995127527e-09</v>
       </c>
       <c r="S8" t="n">
-        <v>5.608367104059653e-10</v>
+        <v>1.433209995127527e-09</v>
       </c>
       <c r="T8" t="n">
-        <v>52.64452922070537</v>
+        <v>55.06280823594315</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.80419152411643, 60.48486691729431]</t>
+          <t>[46.53308411815033, 63.592532353735976]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3.978858858858942</v>
+        <v>4.018798798798883</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.958638638638702</v>
+        <v>2.950510510510575</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.999079079079182</v>
+        <v>5.087087087087191</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.48000000000054</v>
+        <v>25.41000000000053</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>9.248157795127554e-14</v>
+        <v>2.192690473634684e-13</v>
       </c>
       <c r="I9" t="n">
-        <v>9.248157795127554e-14</v>
+        <v>2.192690473634684e-13</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>56.67983021903125</v>
+        <v>60.82201151891596</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[44.01317297234738, 69.34648746571511]</t>
+          <t>[46.011949364556116, 75.6320736732758]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.216404754700307e-11</v>
+        <v>1.39223965689439e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.216404754700307e-11</v>
+        <v>1.39223965689439e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.283052855520156</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.534631846798618, -1.0314738642416934]</t>
+          <t>[-1.4843160485429259, -0.9811580659860013]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.229327833447314e-13</v>
+        <v>7.844835892001356e-13</v>
       </c>
       <c r="S9" t="n">
-        <v>2.229327833447314e-13</v>
+        <v>7.844835892001356e-13</v>
       </c>
       <c r="T9" t="n">
-        <v>52.74898427560244</v>
+        <v>50.88529646758791</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.31866707223075, 60.179301478974125]</t>
+          <t>[42.71258046616043, 59.05801246901538]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>5.203123123123234</v>
+        <v>4.985345345345451</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.18290290290299</v>
+        <v>3.96792792792801</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.223343343343478</v>
+        <v>6.002762762762891</v>
       </c>
     </row>
     <row r="10">
@@ -1269,53 +1269,53 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.48000000000054</v>
+        <v>25.41000000000053</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.65631960871815e-12</v>
+        <v>4.021893929007092e-12</v>
       </c>
       <c r="I10" t="n">
-        <v>2.65631960871815e-12</v>
+        <v>4.021893929007092e-12</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>54.06985840827898</v>
+        <v>58.64778914687823</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[42.456267023272815, 65.68344979328513]</t>
+          <t>[45.92220131228579, 71.37337698147067]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.747668841924678e-12</v>
+        <v>5.083045095943817e-12</v>
       </c>
       <c r="O10" t="n">
-        <v>3.747668841924678e-12</v>
+        <v>5.083045095943817e-12</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.559789745926464</v>
+        <v>-1.622684493746079</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.8239476867688493, -1.2956318050840787]</t>
+          <t>[-1.8742634850245414, -1.3711055024676169]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>59.59637290098173</v>
+        <v>61.31013725704636</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[51.75204750363848, 67.44069829832497]</t>
+          <t>[52.70406530577493, 69.9162092083178]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>6.325365365365503</v>
+        <v>6.562342342342479</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.254134134134247</v>
+        <v>5.544924924925039</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.396596596596758</v>
+        <v>7.579759759759919</v>
       </c>
     </row>
     <row r="11">
@@ -1355,39 +1355,39 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.48000000000054</v>
+        <v>25.41000000000053</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.012745443063068e-12</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>1.012745443063068e-12</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>56.28273788870311</v>
+        <v>61.50238818447625</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[42.64185058307257, 69.92362519433365]</t>
+          <t>[48.48489709961419, 74.5198792693383]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.224029766433432e-10</v>
+        <v>2.404521026733164e-12</v>
       </c>
       <c r="O11" t="n">
-        <v>1.224029766433432e-10</v>
+        <v>2.404521026733164e-12</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.899421384152387</v>
+        <v>-2.012631930227695</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.176158274558696, -1.6226844937460791]</t>
+          <t>[-2.239053022378311, -1.7862108380770785]</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1397,11 +1397,11 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>53.32896268759693</v>
+        <v>54.66225942619413</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[45.526862356807655, 61.1310630183862]</t>
+          <t>[47.26807482232876, 62.05644403005951]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.702662662662828</v>
+        <v>8.139339339339507</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.580420420420561</v>
+        <v>7.22366366366381</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.824904904905095</v>
+        <v>9.055015015015204</v>
       </c>
     </row>
     <row r="12">
@@ -1441,39 +1441,39 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.48000000000054</v>
+        <v>25.41000000000053</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.936895088761048e-11</v>
+        <v>6.70019595361282e-13</v>
       </c>
       <c r="I12" t="n">
-        <v>1.936895088761048e-11</v>
+        <v>6.70019595361282e-13</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>59.62722081300951</v>
+        <v>57.43834116025192</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[42.116011759959704, 77.13842986605931]</t>
+          <t>[42.69560875914399, 72.18107356135985]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.6541970015993e-08</v>
+        <v>5.760665278131682e-10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.6541970015993e-08</v>
+        <v>5.760665278131682e-10</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.377421467581465</v>
+        <v>-2.327105669325773</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.6667373075516965, -2.0881056276112337]</t>
+          <t>[-2.5786846606042344, -2.0755266780473107]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1483,27 +1483,27 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>51.91963294684471</v>
+        <v>50.70678289916268</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.08997945475725, 60.74928643893218]</t>
+          <t>[43.038962459525166, 58.3746033388002]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>9.641081081081287</v>
+        <v>9.411111111111309</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.467827827828009</v>
+        <v>8.393693693693869</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.81433433433457</v>
+        <v>10.42852852852875</v>
       </c>
     </row>
     <row r="13">
@@ -1527,39 +1527,39 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.48000000000054</v>
+        <v>25.41000000000053</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.907185768843192e-14</v>
+        <v>8.115730310009894e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>4.907185768843192e-14</v>
+        <v>8.115730310009894e-14</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>61.13888268616628</v>
+        <v>64.02478349962493</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[47.40987034144669, 74.86789503088586]</t>
+          <t>[48.85326438522267, 79.19630261402719]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.4000578474338e-11</v>
+        <v>6.534706109562194e-11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4000578474338e-11</v>
+        <v>6.534706109562194e-11</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.779947853627005</v>
+        <v>-2.666737307551696</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.006368945777621, -2.5535267614763884]</t>
+          <t>[-2.9057373492662344, -2.4277372658371577]</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -1569,11 +1569,11 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>51.16816375026361</v>
+        <v>54.46296569084887</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[43.7820491318091, 58.554278368718116]</t>
+          <t>[46.58064264355074, 62.345288738147]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>11.27343343343368</v>
+        <v>10.78462462462485</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.35523523523545</v>
+        <v>9.818078078078285</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.1916316316319</v>
+        <v>11.75117117117142</v>
       </c>
     </row>
     <row r="14">
@@ -1613,39 +1613,39 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.48000000000054</v>
+        <v>25.41000000000053</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.339233168806686e-10</v>
+        <v>4.622968674539152e-13</v>
       </c>
       <c r="I14" t="n">
-        <v>1.339233168806686e-10</v>
+        <v>4.622968674539152e-13</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>59.35201016771131</v>
+        <v>57.34039615379642</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[45.087593016463515, 73.6164273189591]</t>
+          <t>[45.37737285081914, 69.3034194567737]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>9.698597480678472e-11</v>
+        <v>1.549427253166868e-12</v>
       </c>
       <c r="O14" t="n">
-        <v>9.698597480678472e-11</v>
+        <v>1.549427253166868e-12</v>
       </c>
       <c r="P14" t="n">
-        <v>-3.119579491852928</v>
+        <v>-3.056684744033312</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-3.3963163822592364, -2.8428426014466197]</t>
+          <t>[-3.2705268866200043, -2.8428426014466197]</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -1655,27 +1655,27 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>53.69464956094838</v>
+        <v>53.83340848707202</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.43375637551122, 62.95554274638555]</t>
+          <t>[46.399546517975494, 61.267270456168546]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>12.650730730731</v>
+        <v>12.36162162162188</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.52848848848874</v>
+        <v>11.49681681681706</v>
       </c>
       <c r="Z14" t="n">
-        <v>13.77297297297327</v>
+        <v>13.2264264264267</v>
       </c>
     </row>
   </sheetData>
